--- a/Datos ELN.xlsx
+++ b/Datos ELN.xlsx
@@ -1,37 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PUJ\VIII Semestre\Planeación del Proyecto Final\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PUJ\VIII Semestre\Matlab - Herramienta Tecnológica\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15C7781-F927-4D33-B665-66871E47ACF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A475A094-2C47-4983-BF42-8E37EF900D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Join" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="146">
+  <si>
+    <t>CÓDIGO DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>CÓDIGO MUNICIPIO</t>
+  </si>
+  <si>
+    <t>NOMBRE MUNICIPIO</t>
+  </si>
+  <si>
+    <t>LATITUD DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>LONGITUD DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>LATITUD MUNICIPIO</t>
+  </si>
+  <si>
+    <t>LONGITUD MUNICIPIO</t>
+  </si>
   <si>
     <t>ANTIOQUIA</t>
   </si>
@@ -445,24 +458,15 @@
   </si>
   <si>
     <t>MAICAO</t>
-  </si>
-  <si>
-    <t>CÓDIGO DEPARTAMENTO</t>
-  </si>
-  <si>
-    <t>NOMBRE DEPARTAMENTO</t>
-  </si>
-  <si>
-    <t>CÓDIGO MUNICIPIO</t>
-  </si>
-  <si>
-    <t>NOMBRE MUNICIPIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -472,16 +476,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -504,22 +505,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,1800 +848,3328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E2" s="5">
         <v>5790</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8">
+        <v>7.5833332999999996</v>
+      </c>
+      <c r="H2" s="8">
+        <v>-75.349999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E3" s="5">
         <v>5030</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H3" s="8">
+        <v>-75.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E4" s="5">
         <v>5361</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8">
+        <v>7.25</v>
+      </c>
+      <c r="H4" s="8">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E5" s="5">
         <v>5250</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>7.5941666999999997</v>
+      </c>
+      <c r="H5" s="8">
+        <v>-74.811944400000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E6" s="5">
         <v>5480</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8">
+        <v>7.3333332999999996</v>
+      </c>
+      <c r="H6" s="8">
+        <v>-76.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E7" s="5">
         <v>5543</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8">
+        <v>7</v>
+      </c>
+      <c r="H7" s="8">
+        <v>-75.833333300000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E8" s="5">
         <v>5040</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8">
+        <v>7.1666667000000004</v>
+      </c>
+      <c r="H8" s="8">
+        <v>-75.083333300000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E9" s="5">
         <v>5895</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8">
+        <v>7.75</v>
+      </c>
+      <c r="H9" s="8">
+        <v>-74.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E10" s="5">
         <v>5604</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8">
+        <v>7</v>
+      </c>
+      <c r="H10" s="8">
+        <v>-74.416666699999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E11" s="5">
         <v>5038</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8">
+        <v>6.8666666999999997</v>
+      </c>
+      <c r="H11" s="8">
+        <v>-75.333333300000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E12" s="5">
         <v>5045</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="8">
+        <v>7.8855556</v>
+      </c>
+      <c r="H12" s="8">
+        <v>-76.634722199999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E13" s="5">
         <v>5120</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.6666667000000004</v>
+      </c>
+      <c r="H13" s="8">
+        <v>-75.333333300000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5">
         <v>5</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E14" s="5">
         <v>5154</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8">
+        <v>7.9166667000000004</v>
+      </c>
+      <c r="H14" s="8">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="5">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E15" s="5">
         <v>5134</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="8">
+        <v>7.0833332999999996</v>
+      </c>
+      <c r="H15" s="8">
+        <v>-75.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="5">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E16" s="5">
         <v>5475</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="H16" s="8">
+        <v>-76.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="5">
         <v>5</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E17" s="5">
         <v>5628</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="8">
+        <v>6.9166667000000004</v>
+      </c>
+      <c r="H17" s="8">
+        <v>-75.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="5">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E18" s="5">
         <v>5736</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="8">
+        <v>7.25</v>
+      </c>
+      <c r="H18" s="8">
+        <v>-74.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E19" s="5">
         <v>5854</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="8">
+        <v>7.3333332999999996</v>
+      </c>
+      <c r="H19" s="8">
+        <v>-75.333333300000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E20" s="5">
         <v>5873</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="8">
+        <v>6.5919444</v>
+      </c>
+      <c r="H20" s="8">
+        <v>-76.898611099999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="5">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E21" s="5">
         <v>5887</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="8">
+        <v>7</v>
+      </c>
+      <c r="H21" s="8">
+        <v>-75.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="5">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="E22" s="5">
         <v>5893</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="8">
+        <v>7.0077778000000004</v>
+      </c>
+      <c r="H22" s="8">
+        <v>-73.914166699999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="5">
         <v>27</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E23" s="5">
         <v>27025</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="8">
+        <v>5.6666667000000004</v>
+      </c>
+      <c r="H23" s="8">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="5">
         <v>27</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="8">
+        <v>6</v>
+      </c>
+      <c r="D24" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E24" s="5">
         <v>27413</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="8">
+        <v>5.5833332999999996</v>
+      </c>
+      <c r="H24" s="8">
+        <v>-76.416666699999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="5">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="8">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E25" s="5">
         <v>27077</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="8">
+        <v>5</v>
+      </c>
+      <c r="H25" s="8">
+        <v>-77.083333300000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="5">
         <v>27</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="8">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E26" s="5">
         <v>27430</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="8">
+        <v>5.1494650000000002</v>
+      </c>
+      <c r="H26" s="8">
+        <v>-76.986872000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="5">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="8">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E27" s="5">
         <v>27361</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="8">
+        <v>5.1588889</v>
+      </c>
+      <c r="H27" s="8">
+        <v>-76.691666699999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="8">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E28" s="5">
         <v>27745</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4.5833332999999996</v>
+      </c>
+      <c r="H28" s="8">
+        <v>-76.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="8">
+        <v>6</v>
+      </c>
+      <c r="D29" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E29" s="5">
         <v>27006</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="8">
+        <v>8.3333332999999996</v>
+      </c>
+      <c r="H29" s="8">
+        <v>-77.166666699999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="8">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E30" s="5">
         <v>27099</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="8">
+        <v>6.5236111000000001</v>
+      </c>
+      <c r="H30" s="8">
+        <v>-76.974444399999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="5">
         <v>27</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8">
+        <v>6</v>
+      </c>
+      <c r="D31" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E31" s="5">
         <v>27150</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="8">
+        <v>7.1580000000000004</v>
+      </c>
+      <c r="H31" s="8">
+        <v>-76.971000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="5">
         <v>27</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="8">
+        <v>6</v>
+      </c>
+      <c r="D32" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E32" s="5">
         <v>27250</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="8">
+        <v>4.2586111000000004</v>
+      </c>
+      <c r="H32" s="8">
+        <v>-77.367500000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="5">
         <v>27</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="8">
+        <v>6</v>
+      </c>
+      <c r="D33" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E33" s="5">
         <v>27450</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H33" s="8">
+        <v>-76.683000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="5">
         <v>27</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="8">
+        <v>6</v>
+      </c>
+      <c r="D34" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E34" s="5">
         <v>27491</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="8">
+        <v>4.9166667000000004</v>
+      </c>
+      <c r="H34" s="8">
+        <v>-76.583333300000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="5">
         <v>27</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="B35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="8">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E35" s="5">
         <v>27001</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="8">
+        <v>5.6947222000000002</v>
+      </c>
+      <c r="H35" s="8">
+        <v>-76.661111099999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="5">
         <v>27</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="8">
+        <v>6</v>
+      </c>
+      <c r="D36" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E36" s="5">
         <v>27245</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="8">
+        <v>5.8389069999999998</v>
+      </c>
+      <c r="H36" s="8">
+        <v>-76.207970000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="5">
         <v>27</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="8">
+        <v>6</v>
+      </c>
+      <c r="D37" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E37" s="5">
         <v>27615</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="8">
+        <v>7.4166667000000004</v>
+      </c>
+      <c r="H37" s="8">
+        <v>-77.166666699999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="5">
         <v>27</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="B38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="8">
+        <v>6</v>
+      </c>
+      <c r="D38" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E38" s="5">
         <v>27660</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="8">
+        <v>4.9166667000000004</v>
+      </c>
+      <c r="H38" s="8">
+        <v>-76.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="5">
         <v>27</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="B39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="8">
+        <v>6</v>
+      </c>
+      <c r="D39" s="8">
+        <v>-77</v>
+      </c>
+      <c r="E39" s="5">
         <v>27787</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="8">
+        <v>5.3333332999999996</v>
+      </c>
+      <c r="H39" s="8">
+        <v>-76.416666699999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="5">
         <v>19</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="B40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D40" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E40" s="5">
         <v>19256</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="H40" s="8">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="5">
         <v>19</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="B41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D41" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E41" s="5">
         <v>19698</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="8">
+        <v>3.0130555999999999</v>
+      </c>
+      <c r="H41" s="8">
+        <v>-76.486666700000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="5">
         <v>19</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="5">
+      <c r="B42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D42" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E42" s="5">
         <v>19622</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="8">
+        <v>2.3333333000000001</v>
+      </c>
+      <c r="H42" s="8">
+        <v>-76.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="5">
         <v>19</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="5">
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D43" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E43" s="5">
         <v>19397</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="8">
+        <v>2.0833333000000001</v>
+      </c>
+      <c r="H43" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="5">
         <v>19</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="B44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D44" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E44" s="5">
         <v>19100</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1.8333333000000001</v>
+      </c>
+      <c r="H44" s="8">
+        <v>-76.916666699999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="5">
         <v>19</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="5">
+      <c r="B45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D45" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E45" s="5">
         <v>19533</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="8">
+        <v>7.7833332999999998</v>
+      </c>
+      <c r="H45" s="8">
+        <v>-75.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="5">
         <v>19</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="5">
+      <c r="B46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D46" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E46" s="5">
         <v>19450</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="H46" s="8">
+        <v>-77.166666699999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="5">
         <v>19</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="B47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D47" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E47" s="5">
         <v>19137</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="8">
+        <v>2.8333333000000001</v>
+      </c>
+      <c r="H47" s="8">
+        <v>-76.416666699999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="5">
         <v>19</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="5">
+      <c r="B48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D48" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E48" s="5">
         <v>19050</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="8">
+        <v>2.2666667</v>
+      </c>
+      <c r="H48" s="8">
+        <v>-77.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="5">
         <v>19</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="5">
+      <c r="B49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D49" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E49" s="5">
         <v>19142</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="8">
+        <v>3.0833333000000001</v>
+      </c>
+      <c r="H49" s="8">
+        <v>-76.333333300000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="5">
         <v>19</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="5">
+      <c r="B50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D50" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E50" s="5">
         <v>19212</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="F50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="8">
+        <v>3.1666666999999999</v>
+      </c>
+      <c r="H50" s="8">
+        <v>-76.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="5">
         <v>19</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="5">
+      <c r="B51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D51" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E51" s="5">
         <v>19418</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="F51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="8">
+        <v>2.4333333000000001</v>
+      </c>
+      <c r="H51" s="8">
+        <v>-76.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="5">
         <v>19</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="5">
+      <c r="B52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D52" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E52" s="5">
         <v>19532</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="8">
+        <v>2.1155556</v>
+      </c>
+      <c r="H52" s="8">
+        <v>-76.989166699999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="5">
         <v>19</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="B53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D53" s="8">
+        <v>-76.833333300000007</v>
+      </c>
+      <c r="E53" s="5">
         <v>19780</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="F53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="8">
+        <v>2.9588888999999998</v>
+      </c>
+      <c r="H53" s="8">
+        <v>-76.6952778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="5">
         <v>54</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="5">
+      <c r="B54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="8">
+        <v>8</v>
+      </c>
+      <c r="D54" s="8">
+        <v>-73</v>
+      </c>
+      <c r="E54" s="5">
         <v>54245</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="F54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="8">
+        <v>8.75</v>
+      </c>
+      <c r="H54" s="8">
+        <v>-73.333333300000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="5">
+      <c r="B55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="8">
+        <v>8</v>
+      </c>
+      <c r="D55" s="8">
+        <v>-73</v>
+      </c>
+      <c r="E55" s="5">
         <v>54250</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="8">
+        <v>8.5847221999999999</v>
+      </c>
+      <c r="H55" s="8">
+        <v>-73.088333300000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="5">
+      <c r="B56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="8">
+        <v>8</v>
+      </c>
+      <c r="D56" s="8">
+        <v>-73</v>
+      </c>
+      <c r="E56" s="5">
         <v>54670</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="F56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="8">
+        <v>8.75</v>
+      </c>
+      <c r="H56" s="8">
+        <v>-73.033333299999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="5">
         <v>54</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="5">
+      <c r="B57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="8">
+        <v>8</v>
+      </c>
+      <c r="D57" s="8">
+        <v>-73</v>
+      </c>
+      <c r="E57" s="5">
         <v>54003</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="F57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="8">
+        <v>8</v>
+      </c>
+      <c r="H57" s="8">
+        <v>-73.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="5">
         <v>54</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="5">
+      <c r="B58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="8">
+        <v>8</v>
+      </c>
+      <c r="D58" s="8">
+        <v>-73</v>
+      </c>
+      <c r="E58" s="5">
         <v>54800</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="F58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="8">
+        <v>8.75</v>
+      </c>
+      <c r="H58" s="8">
+        <v>-73.166666699999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="5">
         <v>54</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="5">
+      <c r="B59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="8">
+        <v>8</v>
+      </c>
+      <c r="D59" s="8">
+        <v>-73</v>
+      </c>
+      <c r="E59" s="5">
         <v>54344</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="H59" s="8">
+        <v>-73.083333300000007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="5">
         <v>54</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="5">
+      <c r="B60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="8">
+        <v>8</v>
+      </c>
+      <c r="D60" s="8">
+        <v>-73</v>
+      </c>
+      <c r="E60" s="5">
         <v>54206</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="8">
+        <v>8.8333332999999996</v>
+      </c>
+      <c r="H60" s="8">
+        <v>-73.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="5">
         <v>54</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="5">
+      <c r="B61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="8">
+        <v>8</v>
+      </c>
+      <c r="D61" s="8">
+        <v>-73</v>
+      </c>
+      <c r="E61" s="5">
         <v>54810</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="8">
+        <v>8.6480555999999993</v>
+      </c>
+      <c r="H61" s="8">
+        <v>-72.739444399999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="5">
         <v>54</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="5">
+      <c r="B62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="8">
+        <v>8</v>
+      </c>
+      <c r="D62" s="8">
+        <v>-73</v>
+      </c>
+      <c r="E62" s="5">
         <v>54820</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="H62" s="8">
+        <v>-72.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="5">
         <v>54</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="5">
+      <c r="B63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="8">
+        <v>8</v>
+      </c>
+      <c r="D63" s="8">
+        <v>-73</v>
+      </c>
+      <c r="E63" s="5">
         <v>54001</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="F63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="8">
+        <v>7.8833333000000003</v>
+      </c>
+      <c r="H63" s="8">
+        <v>-72.505277800000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="5">
         <v>54</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="5">
+      <c r="B64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="8">
+        <v>8</v>
+      </c>
+      <c r="D64" s="8">
+        <v>-73</v>
+      </c>
+      <c r="E64" s="5">
         <v>54174</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="F64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" s="8">
+        <v>7.1666667000000004</v>
+      </c>
+      <c r="H64" s="8">
+        <v>-72.583333300000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="5">
         <v>54</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="5">
+      <c r="B65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="8">
+        <v>8</v>
+      </c>
+      <c r="D65" s="8">
+        <v>-73</v>
+      </c>
+      <c r="E65" s="5">
         <v>54498</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="F65" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="H65" s="8">
+        <v>-73.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="5">
         <v>13</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="5">
+      <c r="B66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="8">
+        <v>9</v>
+      </c>
+      <c r="D66" s="8">
+        <v>-74.333333300000007</v>
+      </c>
+      <c r="E66" s="5">
         <v>13458</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="F66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="8">
+        <v>8.2994444000000005</v>
+      </c>
+      <c r="H66" s="8">
+        <v>-74.475555600000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="5">
         <v>13</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="5">
+      <c r="B67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="8">
+        <v>9</v>
+      </c>
+      <c r="D67" s="8">
+        <v>-74.333333300000007</v>
+      </c>
+      <c r="E67" s="5">
         <v>13683</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="F67" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" s="8">
+        <v>10.45</v>
+      </c>
+      <c r="H67" s="8">
+        <v>-75.333333300000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="5">
         <v>13</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="5">
+      <c r="B68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="8">
+        <v>9</v>
+      </c>
+      <c r="D68" s="8">
+        <v>-74.333333300000007</v>
+      </c>
+      <c r="E68" s="5">
         <v>13160</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="F68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="8">
+        <v>7.3791666999999999</v>
+      </c>
+      <c r="H68" s="8">
+        <v>-73.918055600000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="5">
         <v>13</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="5">
+      <c r="B69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="8">
+        <v>9</v>
+      </c>
+      <c r="D69" s="8">
+        <v>-74.333333300000007</v>
+      </c>
+      <c r="E69" s="5">
         <v>13600</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="F69" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="8">
+        <v>8.59</v>
+      </c>
+      <c r="H69" s="8">
+        <v>-73.843611100000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="5">
         <v>13</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="5">
+      <c r="B70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="8">
+        <v>9</v>
+      </c>
+      <c r="D70" s="8">
+        <v>-74.333333300000007</v>
+      </c>
+      <c r="E70" s="5">
         <v>13001</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="F70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="8">
+        <v>10.399722199999999</v>
+      </c>
+      <c r="H70" s="8">
+        <v>-75.514444400000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="5">
         <v>13</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" s="5">
+      <c r="B71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="8">
+        <v>9</v>
+      </c>
+      <c r="D71" s="8">
+        <v>-74.333333300000007</v>
+      </c>
+      <c r="E71" s="5">
         <v>13473</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="F71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="8">
+        <v>8.4166667000000004</v>
+      </c>
+      <c r="H71" s="8">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="5">
         <v>13</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="5">
+      <c r="B72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="8">
+        <v>9</v>
+      </c>
+      <c r="D72" s="8">
+        <v>-74.333333300000007</v>
+      </c>
+      <c r="E72" s="5">
         <v>13490</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="F72" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" s="8">
+        <v>8.5333333000000007</v>
+      </c>
+      <c r="H72" s="8">
+        <v>-74.033333299999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="5">
         <v>13</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="5">
+      <c r="B73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="8">
+        <v>9</v>
+      </c>
+      <c r="D73" s="8">
+        <v>-74.333333300000007</v>
+      </c>
+      <c r="E73" s="5">
         <v>13670</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="F73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="8">
+        <v>10.052777799999999</v>
+      </c>
+      <c r="H73" s="8">
+        <v>-75.268055599999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="5">
         <v>13</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="5">
+      <c r="B74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="8">
+        <v>9</v>
+      </c>
+      <c r="D74" s="8">
+        <v>-74.333333300000007</v>
+      </c>
+      <c r="E74" s="5">
         <v>13744</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="F74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" s="8">
+        <v>7.5833332999999996</v>
+      </c>
+      <c r="H74" s="8">
+        <v>-74.166666699999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="5">
         <v>13</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="5">
+      <c r="B75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="8">
+        <v>9</v>
+      </c>
+      <c r="D75" s="8">
+        <v>-74.333333300000007</v>
+      </c>
+      <c r="E75" s="5">
         <v>13810</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="F75" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="8">
+        <v>8.5597221999999995</v>
+      </c>
+      <c r="H75" s="8">
+        <v>-74.2669444</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="5">
         <v>52</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="5">
+      <c r="B76" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D76" s="8">
+        <v>-78</v>
+      </c>
+      <c r="E76" s="5">
         <v>52227</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="F76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76" s="8">
+        <v>0.91666669999999995</v>
+      </c>
+      <c r="H76" s="8">
+        <v>-77.916666699999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="5">
         <v>52</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="5">
+      <c r="B77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D77" s="8">
+        <v>-78</v>
+      </c>
+      <c r="E77" s="5">
         <v>52612</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="F77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" s="8">
+        <v>1.1666666999999999</v>
+      </c>
+      <c r="H77" s="8">
+        <v>-78.166666699999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="5">
         <v>52</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="5">
+      <c r="B78" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D78" s="8">
+        <v>-78</v>
+      </c>
+      <c r="E78" s="5">
         <v>52835</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="F78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" s="8">
+        <v>1.7986111</v>
+      </c>
+      <c r="H78" s="8">
+        <v>-78.815555599999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="5">
         <v>52</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="5">
+      <c r="B79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D79" s="8">
+        <v>-78</v>
+      </c>
+      <c r="E79" s="5">
         <v>52427</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="F79" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" s="8">
+        <v>1.9166666999999999</v>
+      </c>
+      <c r="H79" s="8">
+        <v>-77.833333300000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="5">
         <v>52</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="5">
+      <c r="B80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D80" s="8">
+        <v>-78</v>
+      </c>
+      <c r="E80" s="5">
         <v>52696</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="F80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="8">
+        <v>1.28016</v>
+      </c>
+      <c r="H80" s="8">
+        <v>-77.419169999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="5">
         <v>52</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C81" s="5">
+      <c r="B81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D81" s="8">
+        <v>-78</v>
+      </c>
+      <c r="E81" s="5">
         <v>52418</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="F81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G81" s="8">
+        <v>1.5155555999999999</v>
+      </c>
+      <c r="H81" s="8">
+        <v>-77.495000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="5">
         <v>52</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" s="5">
+      <c r="B82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D82" s="8">
+        <v>-78</v>
+      </c>
+      <c r="E82" s="5">
         <v>52381</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="F82" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G82" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="H82" s="8">
+        <v>-77.416666699999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="5">
         <v>52</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="5">
+      <c r="B83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D83" s="8">
+        <v>-78</v>
+      </c>
+      <c r="E83" s="5">
         <v>52036</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="F83" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G83" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="H83" s="8">
+        <v>-77.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="5">
         <v>52</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="5">
+      <c r="B84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D84" s="8">
+        <v>-78</v>
+      </c>
+      <c r="E84" s="5">
         <v>52378</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="F84" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G84" s="8">
+        <v>1.55</v>
+      </c>
+      <c r="H84" s="8">
+        <v>-76.883333300000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="5">
         <v>52</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="5">
+      <c r="B85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D85" s="8">
+        <v>-78</v>
+      </c>
+      <c r="E85" s="5">
         <v>52435</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="F85" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G85" s="8">
+        <v>1.0833333000000001</v>
+      </c>
+      <c r="H85" s="8">
+        <v>-77.816666699999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="5">
         <v>20</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86" s="5">
+      <c r="B86" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="8">
+        <v>9.3333332999999996</v>
+      </c>
+      <c r="D86" s="8">
+        <v>-73.5</v>
+      </c>
+      <c r="E86" s="5">
         <v>20178</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="F86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="H86" s="8">
+        <v>-73.416666699999993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="5">
         <v>20</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="5">
+      <c r="B87" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="8">
+        <v>9.3333332999999996</v>
+      </c>
+      <c r="D87" s="8">
+        <v>-73.5</v>
+      </c>
+      <c r="E87" s="5">
         <v>20228</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="F87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" s="8">
+        <v>9.2041667</v>
+      </c>
+      <c r="H87" s="8">
+        <v>-73.548611100000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="5">
         <v>20</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" s="5">
+      <c r="B88" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="8">
+        <v>9.3333332999999996</v>
+      </c>
+      <c r="D88" s="8">
+        <v>-73.5</v>
+      </c>
+      <c r="E88" s="5">
         <v>20614</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="F88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" s="8">
+        <v>8</v>
+      </c>
+      <c r="H88" s="8">
+        <v>-73.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="5">
         <v>20</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" s="5">
+      <c r="B89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="8">
+        <v>9.3333332999999996</v>
+      </c>
+      <c r="D89" s="8">
+        <v>-73.5</v>
+      </c>
+      <c r="E89" s="5">
         <v>20550</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="F89" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G89" s="8">
+        <v>8.6916667000000007</v>
+      </c>
+      <c r="H89" s="8">
+        <v>-73.666388900000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="5">
         <v>20</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="5">
+      <c r="B90" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="8">
+        <v>9.3333332999999996</v>
+      </c>
+      <c r="D90" s="8">
+        <v>-73.5</v>
+      </c>
+      <c r="E90" s="5">
         <v>20517</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="F90" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G90" s="8">
+        <v>8.9661110999999991</v>
+      </c>
+      <c r="H90" s="8">
+        <v>-73.631666699999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="5">
         <v>20</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C91" s="5">
+      <c r="B91" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="8">
+        <v>9.3333332999999996</v>
+      </c>
+      <c r="D91" s="8">
+        <v>-73.5</v>
+      </c>
+      <c r="E91" s="5">
         <v>20011</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="F91" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G91" s="8">
+        <v>8.3333332999999996</v>
+      </c>
+      <c r="H91" s="8">
+        <v>-73.583333300000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="5">
         <v>20</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="5">
+      <c r="B92" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="8">
+        <v>9.3333332999999996</v>
+      </c>
+      <c r="D92" s="8">
+        <v>-73.5</v>
+      </c>
+      <c r="E92" s="5">
         <v>20710</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="F92" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G92" s="8">
+        <v>7.7525000000000004</v>
+      </c>
+      <c r="H92" s="8">
+        <v>-73.389166700000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="5">
         <v>20</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93" s="5">
+      <c r="B93" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="8">
+        <v>9.3333332999999996</v>
+      </c>
+      <c r="D93" s="8">
+        <v>-73.5</v>
+      </c>
+      <c r="E93" s="5">
         <v>20400</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="F93" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G93" s="8">
+        <v>9.5641666999999995</v>
+      </c>
+      <c r="H93" s="8">
+        <v>-73.337500000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="5">
         <v>20</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C94" s="5">
+      <c r="B94" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="8">
+        <v>9.3333332999999996</v>
+      </c>
+      <c r="D94" s="8">
+        <v>-73.5</v>
+      </c>
+      <c r="E94" s="5">
         <v>20383</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="F94" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G94" s="8">
+        <v>8.5833332999999996</v>
+      </c>
+      <c r="H94" s="8">
+        <v>-73.583333300000007</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="5">
         <v>20</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" s="5">
+      <c r="B95" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="8">
+        <v>9.3333332999999996</v>
+      </c>
+      <c r="D95" s="8">
+        <v>-73.5</v>
+      </c>
+      <c r="E95" s="5">
         <v>20001</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="F95" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G95" s="8">
+        <v>10.476944400000001</v>
+      </c>
+      <c r="H95" s="8">
+        <v>-73.250555599999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="5">
         <v>85</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96" s="5">
+      <c r="B96" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D96" s="8">
+        <v>-71.5</v>
+      </c>
+      <c r="E96" s="5">
         <v>85010</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="F96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G96" s="8">
+        <v>5.1730555999999996</v>
+      </c>
+      <c r="H96" s="8">
+        <v>-72.5547222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="5">
         <v>85</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97" s="5">
+      <c r="B97" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D97" s="8">
+        <v>-71.5</v>
+      </c>
+      <c r="E97" s="5">
         <v>85001</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="F97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G97" s="8">
+        <v>5.3394443999999996</v>
+      </c>
+      <c r="H97" s="8">
+        <v>-72.3941667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="5">
         <v>85</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C98" s="5">
+      <c r="B98" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D98" s="8">
+        <v>-71.5</v>
+      </c>
+      <c r="E98" s="5">
         <v>85125</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="F98" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G98" s="8">
+        <v>6.1555555999999996</v>
+      </c>
+      <c r="H98" s="8">
+        <v>-71.765555599999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="5">
         <v>85</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C99" s="5">
+      <c r="B99" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D99" s="8">
+        <v>-71.5</v>
+      </c>
+      <c r="E99" s="5">
         <v>85139</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="F99" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G99" s="8">
+        <v>4.8333332999999996</v>
+      </c>
+      <c r="H99" s="8">
+        <v>-72.333333300000007</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="5">
         <v>85</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="5">
+      <c r="B100" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D100" s="8">
+        <v>-71.5</v>
+      </c>
+      <c r="E100" s="5">
         <v>85279</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="F100" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G100" s="8">
+        <v>5.3333332999999996</v>
+      </c>
+      <c r="H100" s="8">
+        <v>-72.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="5">
         <v>85</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="5">
+      <c r="B101" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D101" s="8">
+        <v>-71.5</v>
+      </c>
+      <c r="E101" s="5">
         <v>85400</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="F101" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G101" s="8">
+        <v>5.8297222</v>
+      </c>
+      <c r="H101" s="8">
+        <v>-72.163333300000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="5">
         <v>81</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C102" s="5">
+      <c r="B102" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="8">
+        <v>7.0902778</v>
+      </c>
+      <c r="D102" s="8">
+        <v>-70.761666700000006</v>
+      </c>
+      <c r="E102" s="5">
         <v>81001</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="F102" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G102" s="8">
+        <v>7.0902778</v>
+      </c>
+      <c r="H102" s="8">
+        <v>-70.761666700000006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="5">
         <v>81</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="5">
+      <c r="B103" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="8">
+        <v>7.0902778</v>
+      </c>
+      <c r="D103" s="8">
+        <v>-70.761666700000006</v>
+      </c>
+      <c r="E103" s="5">
         <v>81065</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="F103" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G103" s="8">
+        <v>6.8219443999999996</v>
+      </c>
+      <c r="H103" s="8">
+        <v>-71.323611099999994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="5">
         <v>81</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C104" s="5">
+      <c r="B104" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="8">
+        <v>7.0902778</v>
+      </c>
+      <c r="D104" s="8">
+        <v>-70.761666700000006</v>
+      </c>
+      <c r="E104" s="5">
         <v>81300</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="F104" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G104" s="8">
+        <v>6.7461111000000002</v>
+      </c>
+      <c r="H104" s="8">
+        <v>-71.856666700000005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="5">
         <v>81</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C105" s="5">
+      <c r="B105" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="8">
+        <v>7.0902778</v>
+      </c>
+      <c r="D105" s="8">
+        <v>-70.761666700000006</v>
+      </c>
+      <c r="E105" s="5">
         <v>81794</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="F105" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G105" s="8">
+        <v>6.4641666999999998</v>
+      </c>
+      <c r="H105" s="8">
+        <v>-71.728888900000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="5">
         <v>81</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" s="5">
+      <c r="B106" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="8">
+        <v>7.0902778</v>
+      </c>
+      <c r="D106" s="8">
+        <v>-70.761666700000006</v>
+      </c>
+      <c r="E106" s="5">
         <v>81736</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="F106" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G106" s="8">
+        <v>6.9205556000000001</v>
+      </c>
+      <c r="H106" s="8">
+        <v>-71.853333300000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="5">
         <v>81</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107" s="5">
+      <c r="B107" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="8">
+        <v>7.0902778</v>
+      </c>
+      <c r="D107" s="8">
+        <v>-70.761666700000006</v>
+      </c>
+      <c r="E107" s="5">
         <v>81220</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="F107" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G107" s="8">
+        <v>6.3030556000000004</v>
+      </c>
+      <c r="H107" s="8">
+        <v>-70.201666700000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="5">
         <v>15</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C108" s="5">
+      <c r="B108" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D108" s="8">
+        <v>-72.5</v>
+      </c>
+      <c r="E108" s="5">
         <v>15223</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="F108" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G108" s="8">
+        <v>7.0411111000000002</v>
+      </c>
+      <c r="H108" s="8">
+        <v>-72.060833299999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="5">
         <v>15</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C109" s="5">
+      <c r="B109" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D109" s="8">
+        <v>-72.5</v>
+      </c>
+      <c r="E109" s="5">
         <v>15377</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="F109" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G109" s="8">
+        <v>5.5833332999999996</v>
+      </c>
+      <c r="H109" s="8">
+        <v>-72.583333300000007</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="5">
         <v>15</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="5">
+      <c r="B110" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D110" s="8">
+        <v>-72.5</v>
+      </c>
+      <c r="E110" s="5">
         <v>15518</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="F110" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G110" s="8">
+        <v>5.4166667000000004</v>
+      </c>
+      <c r="H110" s="8">
+        <v>-72.666666699999993</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="5">
         <v>15</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C111" s="5">
+      <c r="B111" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D111" s="8">
+        <v>-72.5</v>
+      </c>
+      <c r="E111" s="5">
         <v>15550</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="F111" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G111" s="8">
+        <v>5.7427777999999998</v>
+      </c>
+      <c r="H111" s="8">
+        <v>-72.489444399999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="5">
         <v>15</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C112" s="5">
+      <c r="B112" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D112" s="8">
+        <v>-72.5</v>
+      </c>
+      <c r="E112" s="5">
         <v>15001</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="F112" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G112" s="8">
+        <v>5.5352778000000002</v>
+      </c>
+      <c r="H112" s="8">
+        <v>-73.367777799999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="5">
         <v>15</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C113" s="5">
+      <c r="B113" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D113" s="8">
+        <v>-72.5</v>
+      </c>
+      <c r="E113" s="5">
         <v>15839</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="F113" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G113" s="8">
+        <v>6.1666667000000004</v>
+      </c>
+      <c r="H113" s="8">
+        <v>-72.833333300000007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="5">
         <v>76</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114" s="5">
+      <c r="B114" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="D114" s="8">
+        <v>-76.5</v>
+      </c>
+      <c r="E114" s="5">
         <v>76109</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="F114" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G114" s="8">
+        <v>3.8933333000000001</v>
+      </c>
+      <c r="H114" s="8">
+        <v>-77.069722200000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="5">
         <v>76</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C115" s="5">
+      <c r="B115" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="D115" s="8">
+        <v>-76.5</v>
+      </c>
+      <c r="E115" s="5">
         <v>76364</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="F115" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G115" s="8">
+        <v>3.1666666999999999</v>
+      </c>
+      <c r="H115" s="8">
+        <v>-76.583333300000007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="5">
         <v>76</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C116" s="5">
+      <c r="B116" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="D116" s="8">
+        <v>-76.5</v>
+      </c>
+      <c r="E116" s="5">
         <v>76246</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="F116" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G116" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="H116" s="8">
+        <v>-76.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="5">
         <v>76</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" s="5">
+      <c r="B117" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="D117" s="8">
+        <v>-76.5</v>
+      </c>
+      <c r="E117" s="5">
         <v>76250</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="F117" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G117" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H117" s="8">
+        <v>-76.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="5">
         <v>76</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C118" s="5">
+      <c r="B118" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="D118" s="8">
+        <v>-76.5</v>
+      </c>
+      <c r="E118" s="5">
         <v>76622</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="F118" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G118" s="8">
+        <v>4.4147221999999999</v>
+      </c>
+      <c r="H118" s="8">
+        <v>-76.154722199999995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="5">
         <v>76</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C119" s="5">
+      <c r="B119" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="D119" s="8">
+        <v>-76.5</v>
+      </c>
+      <c r="E119" s="5">
         <v>76863</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="F119" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G119" s="8">
+        <v>4.6666667000000004</v>
+      </c>
+      <c r="H119" s="8">
+        <v>-76.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="5">
         <v>68</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C120" s="5">
+      <c r="B120" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120" s="8">
+        <v>7</v>
+      </c>
+      <c r="D120" s="8">
+        <v>-73.25</v>
+      </c>
+      <c r="E120" s="5">
         <v>68001</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="F120" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G120" s="8">
+        <v>7.1297221999999998</v>
+      </c>
+      <c r="H120" s="8">
+        <v>-73.125833299999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="5">
         <v>68</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C121" s="5">
+      <c r="B121" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="8">
+        <v>7</v>
+      </c>
+      <c r="D121" s="8">
+        <v>-73.25</v>
+      </c>
+      <c r="E121" s="5">
         <v>68167</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="F121" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G121" s="8">
+        <v>6.25</v>
+      </c>
+      <c r="H121" s="8">
+        <v>-73.083333300000007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="5">
         <v>68</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C122" s="5">
+      <c r="B122" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" s="8">
+        <v>7</v>
+      </c>
+      <c r="D122" s="8">
+        <v>-73.25</v>
+      </c>
+      <c r="E122" s="5">
         <v>68533</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="F122" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G122" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H122" s="8">
+        <v>-73.133333300000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="5">
         <v>68</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123" s="5">
+      <c r="B123" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" s="8">
+        <v>7</v>
+      </c>
+      <c r="D123" s="8">
+        <v>-73.25</v>
+      </c>
+      <c r="E123" s="5">
         <v>68669</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="F123" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G123" s="8">
+        <v>6.8333332999999996</v>
+      </c>
+      <c r="H123" s="8">
+        <v>-72.75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="5">
         <v>68</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C124" s="5">
+      <c r="B124" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="8">
+        <v>7</v>
+      </c>
+      <c r="D124" s="8">
+        <v>-73.25</v>
+      </c>
+      <c r="E124" s="5">
         <v>68745</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="F124" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G124" s="8">
+        <v>6.4472221999999997</v>
+      </c>
+      <c r="H124" s="8">
+        <v>-73.341388899999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="5">
         <v>66</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C125" s="5">
+      <c r="B125" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" s="8">
+        <v>5</v>
+      </c>
+      <c r="D125" s="8">
+        <v>-76</v>
+      </c>
+      <c r="E125" s="5">
         <v>66456</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="F125" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G125" s="8">
+        <v>5.4166667000000004</v>
+      </c>
+      <c r="H125" s="8">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="5">
         <v>66</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C126" s="5">
+      <c r="B126" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126" s="8">
+        <v>5</v>
+      </c>
+      <c r="D126" s="8">
+        <v>-76</v>
+      </c>
+      <c r="E126" s="5">
         <v>66572</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="F126" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G126" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="H126" s="8">
+        <v>-76.166666699999993</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="5">
         <v>44</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C127" s="5">
+      <c r="B127" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="D127" s="8">
+        <v>-72.5</v>
+      </c>
+      <c r="E127" s="5">
         <v>44430</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>137</v>
+      <c r="F127" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G127" s="8">
+        <v>11.3841667</v>
+      </c>
+      <c r="H127" s="8">
+        <v>-72.244166699999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>